--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Slpi-Plscr4.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1027863333333333</v>
+        <v>0.02798933333333333</v>
       </c>
       <c r="H2">
-        <v>0.308359</v>
+        <v>0.083968</v>
       </c>
       <c r="I2">
-        <v>0.009996051618123395</v>
+        <v>0.005339414955455329</v>
       </c>
       <c r="J2">
-        <v>0.01012738921489982</v>
+        <v>0.005440782921197872</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.55858833333333</v>
+        <v>10.35340066666667</v>
       </c>
       <c r="N2">
-        <v>43.675765</v>
+        <v>31.060202</v>
       </c>
       <c r="O2">
-        <v>0.3994041168703007</v>
+        <v>0.3688268417035118</v>
       </c>
       <c r="P2">
-        <v>0.4339092699537593</v>
+        <v>0.3857903674733685</v>
       </c>
       <c r="Q2">
-        <v>1.496423913292778</v>
+        <v>0.2897847823928889</v>
       </c>
       <c r="R2">
-        <v>13.467815219635</v>
+        <v>2.608063041536</v>
       </c>
       <c r="S2">
-        <v>0.003992464168726515</v>
+        <v>0.001969319554565086</v>
       </c>
       <c r="T2">
-        <v>0.004394368060774756</v>
+        <v>0.002099001642511754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1027863333333333</v>
+        <v>0.02798933333333333</v>
       </c>
       <c r="H3">
-        <v>0.308359</v>
+        <v>0.083968</v>
       </c>
       <c r="I3">
-        <v>0.009996051618123395</v>
+        <v>0.005339414955455329</v>
       </c>
       <c r="J3">
-        <v>0.01012738921489982</v>
+        <v>0.005440782921197872</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>33.575806</v>
       </c>
       <c r="O3">
-        <v>0.3070424786752686</v>
+        <v>0.3986985816972414</v>
       </c>
       <c r="P3">
-        <v>0.3335683638184483</v>
+        <v>0.4170360043039814</v>
       </c>
       <c r="Q3">
-        <v>1.150377995817111</v>
+        <v>0.3132548086897778</v>
       </c>
       <c r="R3">
-        <v>10.353401962354</v>
+        <v>2.819293278208</v>
       </c>
       <c r="S3">
-        <v>0.003069212465794537</v>
+        <v>0.002128817169833079</v>
       </c>
       <c r="T3">
-        <v>0.003378176650166732</v>
+        <v>0.002269002369741704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1027863333333333</v>
+        <v>0.02798933333333333</v>
       </c>
       <c r="H4">
-        <v>0.308359</v>
+        <v>0.083968</v>
       </c>
       <c r="I4">
-        <v>0.009996051618123395</v>
+        <v>0.005339414955455329</v>
       </c>
       <c r="J4">
-        <v>0.01012738921489982</v>
+        <v>0.005440782921197872</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.373418</v>
+        <v>1.035200666666667</v>
       </c>
       <c r="N4">
-        <v>4.120254</v>
+        <v>3.105602</v>
       </c>
       <c r="O4">
-        <v>0.03767870832145297</v>
+        <v>0.03687771822115354</v>
       </c>
       <c r="P4">
-        <v>0.04093383150046843</v>
+        <v>0.03857384239825705</v>
       </c>
       <c r="Q4">
-        <v>0.141168600354</v>
+        <v>0.02897457652622222</v>
       </c>
       <c r="R4">
-        <v>1.270517403186</v>
+        <v>0.260771188736</v>
       </c>
       <c r="S4">
-        <v>0.0003766383132854594</v>
+        <v>0.0001969054401930947</v>
       </c>
       <c r="T4">
-        <v>0.0004145528436623704</v>
+        <v>0.0002098719029254153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1027863333333333</v>
+        <v>0.02798933333333333</v>
       </c>
       <c r="H5">
-        <v>0.308359</v>
+        <v>0.083968</v>
       </c>
       <c r="I5">
-        <v>0.009996051618123395</v>
+        <v>0.005339414955455329</v>
       </c>
       <c r="J5">
-        <v>0.01012738921489982</v>
+        <v>0.005440782921197872</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.695869500000001</v>
+        <v>3.7029385</v>
       </c>
       <c r="N5">
-        <v>17.391739</v>
+        <v>7.405876999999999</v>
       </c>
       <c r="O5">
-        <v>0.2385647563173914</v>
+        <v>0.1319125141533857</v>
       </c>
       <c r="P5">
-        <v>0.1727831618453924</v>
+        <v>0.09198639497877599</v>
       </c>
       <c r="Q5">
-        <v>0.8938165410501667</v>
+        <v>0.1036427799893333</v>
       </c>
       <c r="R5">
-        <v>5.362899246301001</v>
+        <v>0.6218566799359999</v>
       </c>
       <c r="S5">
-        <v>0.002384705618413674</v>
+        <v>0.0007043356508823003</v>
       </c>
       <c r="T5">
-        <v>0.001749842329789317</v>
+        <v>0.0005004780067830861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1027863333333333</v>
+        <v>0.02798933333333333</v>
       </c>
       <c r="H6">
-        <v>0.308359</v>
+        <v>0.083968</v>
       </c>
       <c r="I6">
-        <v>0.009996051618123395</v>
+        <v>0.005339414955455329</v>
       </c>
       <c r="J6">
-        <v>0.01012738921489982</v>
+        <v>0.005440782921197872</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6309606666666666</v>
+        <v>1.787694</v>
       </c>
       <c r="N6">
-        <v>1.892882</v>
+        <v>5.363082</v>
       </c>
       <c r="O6">
-        <v>0.01730993981558625</v>
+        <v>0.06368434422470767</v>
       </c>
       <c r="P6">
-        <v>0.01880537288193148</v>
+        <v>0.06661339084561679</v>
       </c>
       <c r="Q6">
-        <v>0.06485413340422222</v>
+        <v>0.050036363264</v>
       </c>
       <c r="R6">
-        <v>0.5836872006379999</v>
+        <v>0.450327269376</v>
       </c>
       <c r="S6">
-        <v>0.0001730310519032096</v>
+        <v>0.0003400371399817694</v>
       </c>
       <c r="T6">
-        <v>0.0001904493305066423</v>
+        <v>0.0003624289992359105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.823066</v>
       </c>
       <c r="I7">
-        <v>0.1239320567114712</v>
+        <v>0.2431037511443977</v>
       </c>
       <c r="J7">
-        <v>0.1255603934902182</v>
+        <v>0.247719038198031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.55858833333333</v>
+        <v>10.35340066666667</v>
       </c>
       <c r="N7">
-        <v>43.675765</v>
+        <v>31.060202</v>
       </c>
       <c r="O7">
-        <v>0.3994041168703007</v>
+        <v>0.3688268417035118</v>
       </c>
       <c r="P7">
-        <v>0.4339092699537593</v>
+        <v>0.3857903674733685</v>
       </c>
       <c r="Q7">
-        <v>18.55281468838778</v>
+        <v>13.19391135770355</v>
       </c>
       <c r="R7">
-        <v>166.97533219549</v>
+        <v>118.745202219332</v>
       </c>
       <c r="S7">
-        <v>0.04949897366276516</v>
+        <v>0.08966318874086468</v>
       </c>
       <c r="T7">
-        <v>0.05448181867444732</v>
+        <v>0.09556761877656776</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.823066</v>
       </c>
       <c r="I8">
-        <v>0.1239320567114712</v>
+        <v>0.2431037511443977</v>
       </c>
       <c r="J8">
-        <v>0.1255603934902182</v>
+        <v>0.247719038198031</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>33.575806</v>
       </c>
       <c r="O8">
-        <v>0.3070424786752686</v>
+        <v>0.3986985816972414</v>
       </c>
       <c r="P8">
-        <v>0.3335683638184483</v>
+        <v>0.4170360043039814</v>
       </c>
       <c r="Q8">
         <v>14.26250248235511</v>
@@ -948,10 +948,10 @@
         <v>128.362522341196</v>
       </c>
       <c r="S8">
-        <v>0.03805240588001407</v>
+        <v>0.09692512078655048</v>
       </c>
       <c r="T8">
-        <v>0.04188297501693262</v>
+        <v>0.1033077578801322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.823066</v>
       </c>
       <c r="I9">
-        <v>0.1239320567114712</v>
+        <v>0.2431037511443977</v>
       </c>
       <c r="J9">
-        <v>0.1255603934902182</v>
+        <v>0.247719038198031</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.373418</v>
+        <v>1.035200666666667</v>
       </c>
       <c r="N9">
-        <v>4.120254</v>
+        <v>3.105602</v>
       </c>
       <c r="O9">
-        <v>0.03767870832145297</v>
+        <v>0.03687771822115354</v>
       </c>
       <c r="P9">
-        <v>0.04093383150046843</v>
+        <v>0.03857384239825705</v>
       </c>
       <c r="Q9">
-        <v>1.750222553196</v>
+        <v>1.319213490636889</v>
       </c>
       <c r="R9">
-        <v>15.752002978764</v>
+        <v>11.872921415732</v>
       </c>
       <c r="S9">
-        <v>0.00466959981650929</v>
+        <v>0.008965111633208529</v>
       </c>
       <c r="T9">
-        <v>0.005139667990261104</v>
+        <v>0.009555475138498665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.823066</v>
       </c>
       <c r="I10">
-        <v>0.1239320567114712</v>
+        <v>0.2431037511443977</v>
       </c>
       <c r="J10">
-        <v>0.1255603934902182</v>
+        <v>0.247719038198031</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.695869500000001</v>
+        <v>3.7029385</v>
       </c>
       <c r="N10">
-        <v>17.391739</v>
+        <v>7.405876999999999</v>
       </c>
       <c r="O10">
-        <v>0.2385647563173914</v>
+        <v>0.1319125141533857</v>
       </c>
       <c r="P10">
-        <v>0.1727831618453924</v>
+        <v>0.09198639497877599</v>
       </c>
       <c r="Q10">
-        <v>11.08162767529567</v>
+        <v>4.718859426480333</v>
       </c>
       <c r="R10">
-        <v>66.489766051774</v>
+        <v>28.313156558882</v>
       </c>
       <c r="S10">
-        <v>0.02956582090928525</v>
+        <v>0.0320684270135765</v>
       </c>
       <c r="T10">
-        <v>0.02169472178979152</v>
+        <v>0.02278678129144657</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>3.823066</v>
       </c>
       <c r="I11">
-        <v>0.1239320567114712</v>
+        <v>0.2431037511443977</v>
       </c>
       <c r="J11">
-        <v>0.1255603934902182</v>
+        <v>0.247719038198031</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6309606666666666</v>
+        <v>1.787694</v>
       </c>
       <c r="N11">
-        <v>1.892882</v>
+        <v>5.363082</v>
       </c>
       <c r="O11">
-        <v>0.01730993981558625</v>
+        <v>0.06368434422470767</v>
       </c>
       <c r="P11">
-        <v>0.01880537288193148</v>
+        <v>0.06661339084561679</v>
       </c>
       <c r="Q11">
-        <v>0.8040680906902221</v>
+        <v>2.278157383268</v>
       </c>
       <c r="R11">
-        <v>7.236612816211999</v>
+        <v>20.503416449412</v>
       </c>
       <c r="S11">
-        <v>0.002145256442897388</v>
+        <v>0.01548190297019749</v>
       </c>
       <c r="T11">
-        <v>0.002361210018785594</v>
+        <v>0.01650140511138571</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>2.675659333333333</v>
+        <v>3.168718333333333</v>
       </c>
       <c r="H12">
-        <v>8.026978</v>
+        <v>9.506155</v>
       </c>
       <c r="I12">
-        <v>0.2602099709284986</v>
+        <v>0.6044839245412116</v>
       </c>
       <c r="J12">
-        <v>0.2636288560588084</v>
+        <v>0.6159599582014548</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.55858833333333</v>
+        <v>10.35340066666667</v>
       </c>
       <c r="N12">
-        <v>43.675765</v>
+        <v>31.060202</v>
       </c>
       <c r="O12">
-        <v>0.3994041168703007</v>
+        <v>0.3688268417035118</v>
       </c>
       <c r="P12">
-        <v>0.4339092699537593</v>
+        <v>0.3857903674733685</v>
       </c>
       <c r="Q12">
-        <v>38.95382275424111</v>
+        <v>32.80701050481222</v>
       </c>
       <c r="R12">
-        <v>350.58440478817</v>
+        <v>295.2630945433099</v>
       </c>
       <c r="S12">
-        <v>0.1039289336395436</v>
+        <v>0.222949896749079</v>
       </c>
       <c r="T12">
-        <v>0.1143910044712222</v>
+        <v>0.2376314186234199</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>2.675659333333333</v>
+        <v>3.168718333333333</v>
       </c>
       <c r="H13">
-        <v>8.026978</v>
+        <v>9.506155</v>
       </c>
       <c r="I13">
-        <v>0.2602099709284986</v>
+        <v>0.6044839245412116</v>
       </c>
       <c r="J13">
-        <v>0.2636288560588084</v>
+        <v>0.6159599582014548</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>33.575806</v>
       </c>
       <c r="O13">
-        <v>0.3070424786752686</v>
+        <v>0.3986985816972414</v>
       </c>
       <c r="P13">
-        <v>0.3335683638184483</v>
+        <v>0.4170360043039814</v>
       </c>
       <c r="Q13">
-        <v>29.94580623269644</v>
+        <v>35.46409067621444</v>
       </c>
       <c r="R13">
-        <v>269.512256094268</v>
+        <v>319.17681608593</v>
       </c>
       <c r="S13">
-        <v>0.07989551444990581</v>
+        <v>0.2410068833733634</v>
       </c>
       <c r="T13">
-        <v>0.08793824617086594</v>
+        <v>0.2568774797795821</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.675659333333333</v>
+        <v>3.168718333333333</v>
       </c>
       <c r="H14">
-        <v>8.026978</v>
+        <v>9.506155</v>
       </c>
       <c r="I14">
-        <v>0.2602099709284986</v>
+        <v>0.6044839245412116</v>
       </c>
       <c r="J14">
-        <v>0.2636288560588084</v>
+        <v>0.6159599582014548</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.373418</v>
+        <v>1.035200666666667</v>
       </c>
       <c r="N14">
-        <v>4.120254</v>
+        <v>3.105602</v>
       </c>
       <c r="O14">
-        <v>0.03767870832145297</v>
+        <v>0.03687771822115354</v>
       </c>
       <c r="P14">
-        <v>0.04093383150046843</v>
+        <v>0.03857384239825705</v>
       </c>
       <c r="Q14">
-        <v>3.674798690268</v>
+        <v>3.280259331145555</v>
       </c>
       <c r="R14">
-        <v>33.073188212412</v>
+        <v>29.52233398031</v>
       </c>
       <c r="S14">
-        <v>0.009804375596948656</v>
+        <v>0.02229198783844784</v>
       </c>
       <c r="T14">
-        <v>0.01079133917257251</v>
+        <v>0.02375994235129992</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.675659333333333</v>
+        <v>3.168718333333333</v>
       </c>
       <c r="H15">
-        <v>8.026978</v>
+        <v>9.506155</v>
       </c>
       <c r="I15">
-        <v>0.2602099709284986</v>
+        <v>0.6044839245412116</v>
       </c>
       <c r="J15">
-        <v>0.2636288560588084</v>
+        <v>0.6159599582014548</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.695869500000001</v>
+        <v>3.7029385</v>
       </c>
       <c r="N15">
-        <v>17.391739</v>
+        <v>7.405876999999999</v>
       </c>
       <c r="O15">
-        <v>0.2385647563173914</v>
+        <v>0.1319125141533857</v>
       </c>
       <c r="P15">
-        <v>0.1727831618453924</v>
+        <v>0.09198639497877599</v>
       </c>
       <c r="Q15">
-        <v>23.26718438912367</v>
+        <v>11.73356911215583</v>
       </c>
       <c r="R15">
-        <v>139.603106334742</v>
+        <v>70.40141467293499</v>
       </c>
       <c r="S15">
-        <v>0.06207692830591277</v>
+        <v>0.07973899425153669</v>
       </c>
       <c r="T15">
-        <v>0.04555062730352475</v>
+        <v>0.05665993600622937</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.675659333333333</v>
+        <v>3.168718333333333</v>
       </c>
       <c r="H16">
-        <v>8.026978</v>
+        <v>9.506155</v>
       </c>
       <c r="I16">
-        <v>0.2602099709284986</v>
+        <v>0.6044839245412116</v>
       </c>
       <c r="J16">
-        <v>0.2636288560588084</v>
+        <v>0.6159599582014548</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6309606666666666</v>
+        <v>1.787694</v>
       </c>
       <c r="N16">
-        <v>1.892882</v>
+        <v>5.363082</v>
       </c>
       <c r="O16">
-        <v>0.01730993981558625</v>
+        <v>0.06368434422470767</v>
       </c>
       <c r="P16">
-        <v>0.01880537288193148</v>
+        <v>0.06661339084561679</v>
       </c>
       <c r="Q16">
-        <v>1.688235796732889</v>
+        <v>5.66469875219</v>
       </c>
       <c r="R16">
-        <v>15.194122170596</v>
+        <v>50.98228876971</v>
       </c>
       <c r="S16">
-        <v>0.00450421893618776</v>
+        <v>0.03849616232878474</v>
       </c>
       <c r="T16">
-        <v>0.004957638940622931</v>
+        <v>0.04103118144092329</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.400055</v>
+        <v>0.2929945</v>
       </c>
       <c r="H17">
-        <v>0.80011</v>
+        <v>0.585989</v>
       </c>
       <c r="I17">
-        <v>0.03890566284838472</v>
+        <v>0.05589340755404999</v>
       </c>
       <c r="J17">
-        <v>0.02627789487167066</v>
+        <v>0.03796969015827244</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.55858833333333</v>
+        <v>10.35340066666667</v>
       </c>
       <c r="N17">
-        <v>43.675765</v>
+        <v>31.060202</v>
       </c>
       <c r="O17">
-        <v>0.3994041168703007</v>
+        <v>0.3688268417035118</v>
       </c>
       <c r="P17">
-        <v>0.4339092699537593</v>
+        <v>0.3857903674733685</v>
       </c>
       <c r="Q17">
-        <v>5.824236055691666</v>
+        <v>3.033489451629666</v>
       </c>
       <c r="R17">
-        <v>34.94541633415</v>
+        <v>18.200936709778</v>
       </c>
       <c r="S17">
-        <v>0.01553908191121277</v>
+        <v>0.02061498898020746</v>
       </c>
       <c r="T17">
-        <v>0.01140222217968825</v>
+        <v>0.01464834071900987</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.400055</v>
+        <v>0.2929945</v>
       </c>
       <c r="H18">
-        <v>0.80011</v>
+        <v>0.585989</v>
       </c>
       <c r="I18">
-        <v>0.03890566284838472</v>
+        <v>0.05589340755404999</v>
       </c>
       <c r="J18">
-        <v>0.02627789487167066</v>
+        <v>0.03796969015827244</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>33.575806</v>
       </c>
       <c r="O18">
-        <v>0.3070424786752686</v>
+        <v>0.3986985816972414</v>
       </c>
       <c r="P18">
-        <v>0.3335683638184483</v>
+        <v>0.4170360043039814</v>
       </c>
       <c r="Q18">
-        <v>4.477389689776667</v>
+        <v>3.279175497022333</v>
       </c>
       <c r="R18">
-        <v>26.86433813866</v>
+        <v>19.675052982134</v>
       </c>
       <c r="S18">
-        <v>0.01194569115547236</v>
+        <v>0.02228462231802561</v>
       </c>
       <c r="T18">
-        <v>0.008765474396936375</v>
+        <v>0.01583472786826615</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.400055</v>
+        <v>0.2929945</v>
       </c>
       <c r="H19">
-        <v>0.80011</v>
+        <v>0.585989</v>
       </c>
       <c r="I19">
-        <v>0.03890566284838472</v>
+        <v>0.05589340755404999</v>
       </c>
       <c r="J19">
-        <v>0.02627789487167066</v>
+        <v>0.03796969015827244</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.373418</v>
+        <v>1.035200666666667</v>
       </c>
       <c r="N19">
-        <v>4.120254</v>
+        <v>3.105602</v>
       </c>
       <c r="O19">
-        <v>0.03767870832145297</v>
+        <v>0.03687771822115354</v>
       </c>
       <c r="P19">
-        <v>0.04093383150046843</v>
+        <v>0.03857384239825705</v>
       </c>
       <c r="Q19">
-        <v>0.54944273799</v>
+        <v>0.3033081017296667</v>
       </c>
       <c r="R19">
-        <v>3.29665642794</v>
+        <v>1.819848610378</v>
       </c>
       <c r="S19">
-        <v>0.001465915122517077</v>
+        <v>0.00206122133419835</v>
       </c>
       <c r="T19">
-        <v>0.00107565492086399</v>
+        <v>0.001464636844075853</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.400055</v>
+        <v>0.2929945</v>
       </c>
       <c r="H20">
-        <v>0.80011</v>
+        <v>0.585989</v>
       </c>
       <c r="I20">
-        <v>0.03890566284838472</v>
+        <v>0.05589340755404999</v>
       </c>
       <c r="J20">
-        <v>0.02627789487167066</v>
+        <v>0.03796969015827244</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.695869500000001</v>
+        <v>3.7029385</v>
       </c>
       <c r="N20">
-        <v>17.391739</v>
+        <v>7.405876999999999</v>
       </c>
       <c r="O20">
-        <v>0.2385647563173914</v>
+        <v>0.1319125141533857</v>
       </c>
       <c r="P20">
-        <v>0.1727831618453924</v>
+        <v>0.09198639497877599</v>
       </c>
       <c r="Q20">
-        <v>3.4788260728225</v>
+        <v>1.08494061433825</v>
       </c>
       <c r="R20">
-        <v>13.91530429129</v>
+        <v>4.339762457352999</v>
       </c>
       <c r="S20">
-        <v>0.009281519976791488</v>
+        <v>0.007373039915054573</v>
       </c>
       <c r="T20">
-        <v>0.004540377762568078</v>
+        <v>0.003492694916120592</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.400055</v>
+        <v>0.2929945</v>
       </c>
       <c r="H21">
-        <v>0.80011</v>
+        <v>0.585989</v>
       </c>
       <c r="I21">
-        <v>0.03890566284838472</v>
+        <v>0.05589340755404999</v>
       </c>
       <c r="J21">
-        <v>0.02627789487167066</v>
+        <v>0.03796969015827244</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.6309606666666666</v>
+        <v>1.787694</v>
       </c>
       <c r="N21">
-        <v>1.892882</v>
+        <v>5.363082</v>
       </c>
       <c r="O21">
-        <v>0.01730993981558625</v>
+        <v>0.06368434422470767</v>
       </c>
       <c r="P21">
-        <v>0.01880537288193148</v>
+        <v>0.06661339084561679</v>
       </c>
       <c r="Q21">
-        <v>0.2524189695033333</v>
+        <v>0.5237845096830001</v>
       </c>
       <c r="R21">
-        <v>1.51451381702</v>
+        <v>3.142707058098</v>
       </c>
       <c r="S21">
-        <v>0.0006734546823910296</v>
+        <v>0.003559535006563995</v>
       </c>
       <c r="T21">
-        <v>0.0004941656116139616</v>
+        <v>0.002529289810799971</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>5.829837333333334</v>
+        <v>0.477965</v>
       </c>
       <c r="H22">
-        <v>17.489512</v>
+        <v>1.433895</v>
       </c>
       <c r="I22">
-        <v>0.566956257893522</v>
+        <v>0.09117950180488542</v>
       </c>
       <c r="J22">
-        <v>0.5744054663644029</v>
+        <v>0.092910530521044</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.55858833333333</v>
+        <v>10.35340066666667</v>
       </c>
       <c r="N22">
-        <v>43.675765</v>
+        <v>31.060202</v>
       </c>
       <c r="O22">
-        <v>0.3994041168703007</v>
+        <v>0.3688268417035118</v>
       </c>
       <c r="P22">
-        <v>0.4339092699537593</v>
+        <v>0.3857903674733685</v>
       </c>
       <c r="Q22">
-        <v>84.87420178629777</v>
+        <v>4.948563149643332</v>
       </c>
       <c r="R22">
-        <v>763.86781607668</v>
+        <v>44.53706834678999</v>
       </c>
       <c r="S22">
-        <v>0.2264446634880526</v>
+        <v>0.03362944767879554</v>
       </c>
       <c r="T22">
-        <v>0.2492398565676267</v>
+        <v>0.03584398771185918</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>5.829837333333334</v>
+        <v>0.477965</v>
       </c>
       <c r="H23">
-        <v>17.489512</v>
+        <v>1.433895</v>
       </c>
       <c r="I23">
-        <v>0.566956257893522</v>
+        <v>0.09117950180488542</v>
       </c>
       <c r="J23">
-        <v>0.5744054663644029</v>
+        <v>0.092910530521044</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>33.575806</v>
       </c>
       <c r="O23">
-        <v>0.3070424786752686</v>
+        <v>0.3986985816972414</v>
       </c>
       <c r="P23">
-        <v>0.3335683638184483</v>
+        <v>0.4170360043039814</v>
       </c>
       <c r="Q23">
-        <v>65.24716243851911</v>
+        <v>5.349353371596666</v>
       </c>
       <c r="R23">
-        <v>587.224461946672</v>
+        <v>48.14418034437</v>
       </c>
       <c r="S23">
-        <v>0.1740796547240818</v>
+        <v>0.03635313804946888</v>
       </c>
       <c r="T23">
-        <v>0.1916034915835466</v>
+        <v>0.0387470364062593</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>5.829837333333334</v>
+        <v>0.477965</v>
       </c>
       <c r="H24">
-        <v>17.489512</v>
+        <v>1.433895</v>
       </c>
       <c r="I24">
-        <v>0.566956257893522</v>
+        <v>0.09117950180488542</v>
       </c>
       <c r="J24">
-        <v>0.5744054663644029</v>
+        <v>0.092910530521044</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.373418</v>
+        <v>1.035200666666667</v>
       </c>
       <c r="N24">
-        <v>4.120254</v>
+        <v>3.105602</v>
       </c>
       <c r="O24">
-        <v>0.03767870832145297</v>
+        <v>0.03687771822115354</v>
       </c>
       <c r="P24">
-        <v>0.04093383150046843</v>
+        <v>0.03857384239825705</v>
       </c>
       <c r="Q24">
-        <v>8.006803530672</v>
+        <v>0.4947896866433333</v>
       </c>
       <c r="R24">
-        <v>72.061231776048</v>
+        <v>4.45310717979</v>
       </c>
       <c r="S24">
-        <v>0.02136217947219248</v>
+        <v>0.003362491975105725</v>
       </c>
       <c r="T24">
-        <v>0.02351261657310846</v>
+        <v>0.003583916161457203</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>5.829837333333334</v>
+        <v>0.477965</v>
       </c>
       <c r="H25">
-        <v>17.489512</v>
+        <v>1.433895</v>
       </c>
       <c r="I25">
-        <v>0.566956257893522</v>
+        <v>0.09117950180488542</v>
       </c>
       <c r="J25">
-        <v>0.5744054663644029</v>
+        <v>0.092910530521044</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.695869500000001</v>
+        <v>3.7029385</v>
       </c>
       <c r="N25">
-        <v>17.391739</v>
+        <v>7.405876999999999</v>
       </c>
       <c r="O25">
-        <v>0.2385647563173914</v>
+        <v>0.1319125141533857</v>
       </c>
       <c r="P25">
-        <v>0.1727831618453924</v>
+        <v>0.09198639497877599</v>
       </c>
       <c r="Q25">
-        <v>50.69550465689468</v>
+        <v>1.7698750001525</v>
       </c>
       <c r="R25">
-        <v>304.173027941368</v>
+        <v>10.619250000915</v>
       </c>
       <c r="S25">
-        <v>0.1352557815069882</v>
+        <v>0.0120277173223356</v>
       </c>
       <c r="T25">
-        <v>0.09924759265971873</v>
+        <v>0.008546504758196375</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>5.829837333333334</v>
+        <v>0.477965</v>
       </c>
       <c r="H26">
-        <v>17.489512</v>
+        <v>1.433895</v>
       </c>
       <c r="I26">
-        <v>0.566956257893522</v>
+        <v>0.09117950180488542</v>
       </c>
       <c r="J26">
-        <v>0.5744054663644029</v>
+        <v>0.092910530521044</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6309606666666666</v>
+        <v>1.787694</v>
       </c>
       <c r="N26">
-        <v>1.892882</v>
+        <v>5.363082</v>
       </c>
       <c r="O26">
-        <v>0.01730993981558625</v>
+        <v>0.06368434422470767</v>
       </c>
       <c r="P26">
-        <v>0.01880537288193148</v>
+        <v>0.06661339084561679</v>
       </c>
       <c r="Q26">
-        <v>3.678398050398222</v>
+        <v>0.85445516271</v>
       </c>
       <c r="R26">
-        <v>33.105582453584</v>
+        <v>7.69009646439</v>
       </c>
       <c r="S26">
-        <v>0.009813978702206865</v>
+        <v>0.005806706779179677</v>
       </c>
       <c r="T26">
-        <v>0.01080190898040235</v>
+        <v>0.006189085483271912</v>
       </c>
     </row>
   </sheetData>
